--- a/stage/stage_2_City.xlsx
+++ b/stage/stage_2_City.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>床</t>
     <rPh sb="0" eb="1">
@@ -87,13 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>階段</t>
-    <rPh sb="0" eb="2">
-      <t>カイダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -110,12 +103,76 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>信号</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベンチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>噴水</t>
+    <rPh sb="0" eb="2">
+      <t>フンスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街灯</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1マス100*100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1層</t>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2層</t>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公園の床</t>
+    <rPh sb="0" eb="2">
+      <t>コウエン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +188,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -333,13 +398,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,26 +598,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -391,10 +712,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,7 +746,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -484,6 +826,126 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightGray">
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -501,6 +963,315 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13373100" y="3057525"/>
+          <a:ext cx="558800" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>層へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="9010650"/>
+          <a:ext cx="558800" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>層へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="5267325"/>
+          <a:ext cx="876300" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>車は←向き</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3086100"/>
+          <a:ext cx="876300" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>車は→向き</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,177 +1537,4098 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:BA53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="7">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="8">
         <v>10</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="16"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="11">
+        <v>15</v>
+      </c>
+      <c r="W1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="44"/>
     </row>
-    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="17"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="9">
+        <v>11</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="47"/>
     </row>
-    <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="2">
         <v>7</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="17"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="9">
+        <v>12</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="47"/>
     </row>
-    <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="2">
         <v>8</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="17"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="9">
+        <v>13</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="47"/>
     </row>
-    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="3" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="10">
+        <v>14</v>
+      </c>
+      <c r="P5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="50"/>
+    </row>
+    <row r="6" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="16"/>
+    </row>
+    <row r="8" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="19"/>
+    </row>
+    <row r="9" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18">
+        <v>10</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18">
+        <v>0</v>
+      </c>
+      <c r="S9" s="18">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18">
+        <v>0</v>
+      </c>
+      <c r="U9" s="18">
+        <v>0</v>
+      </c>
+      <c r="V9" s="18">
+        <v>0</v>
+      </c>
+      <c r="W9" s="18">
+        <v>0</v>
+      </c>
+      <c r="X9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="19"/>
+    </row>
+    <row r="10" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0</v>
+      </c>
+      <c r="S10" s="18">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
+        <v>0</v>
+      </c>
+      <c r="U10" s="18">
+        <v>7</v>
+      </c>
+      <c r="V10" s="18">
+        <v>0</v>
+      </c>
+      <c r="W10" s="18">
+        <v>0</v>
+      </c>
+      <c r="X10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="19"/>
+    </row>
+    <row r="11" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="33">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="33">
+        <v>0</v>
+      </c>
+      <c r="P11" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>0</v>
+      </c>
+      <c r="R11" s="33">
+        <v>0</v>
+      </c>
+      <c r="S11" s="33">
+        <v>0</v>
+      </c>
+      <c r="T11" s="33">
+        <v>0</v>
+      </c>
+      <c r="U11" s="33">
+        <v>0</v>
+      </c>
+      <c r="V11" s="33">
+        <v>0</v>
+      </c>
+      <c r="W11" s="33">
+        <v>0</v>
+      </c>
+      <c r="X11" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="19"/>
+    </row>
+    <row r="12" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="19"/>
+    </row>
+    <row r="13" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="19"/>
+    </row>
+    <row r="14" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="14">
+        <v>4</v>
+      </c>
+      <c r="K14" s="14">
+        <v>4</v>
+      </c>
+      <c r="L14" s="12">
+        <v>4</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="19"/>
+    </row>
+    <row r="15" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
+        <v>14</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="32">
+        <v>14</v>
+      </c>
+      <c r="N15" s="32">
+        <v>0</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+      <c r="P15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>0</v>
+      </c>
+      <c r="R15" s="32">
         <v>11</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="S15" s="32">
+        <v>0</v>
+      </c>
+      <c r="T15" s="32">
+        <v>0</v>
+      </c>
+      <c r="U15" s="32">
+        <v>14</v>
+      </c>
+      <c r="V15" s="18">
+        <v>0</v>
+      </c>
+      <c r="W15" s="18">
+        <v>0</v>
+      </c>
+      <c r="X15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="32">
+        <v>14</v>
+      </c>
+      <c r="AD15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="32">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="32">
+        <v>5</v>
+      </c>
+      <c r="AG15" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="32">
+        <v>14</v>
+      </c>
+      <c r="AL15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="32">
+        <v>11</v>
+      </c>
+      <c r="AP15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="32">
+        <v>14</v>
+      </c>
+      <c r="AT15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="37">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="19"/>
+    </row>
+    <row r="16" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="18">
+        <v>15</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+      <c r="N16" s="18">
+        <v>0</v>
+      </c>
+      <c r="O16" s="18">
+        <v>0</v>
+      </c>
+      <c r="P16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>0</v>
+      </c>
+      <c r="R16" s="18">
+        <v>15</v>
+      </c>
+      <c r="S16" s="18">
+        <v>0</v>
+      </c>
+      <c r="T16" s="18">
+        <v>0</v>
+      </c>
+      <c r="U16" s="18">
+        <v>0</v>
+      </c>
+      <c r="V16" s="18">
+        <v>0</v>
+      </c>
+      <c r="W16" s="18">
+        <v>0</v>
+      </c>
+      <c r="X16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="18">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="18">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="18">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="18">
+        <v>15</v>
+      </c>
+      <c r="AP16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="38">
+        <v>15</v>
+      </c>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="19"/>
+    </row>
+    <row r="17" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>7</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18">
+        <v>6</v>
+      </c>
+      <c r="L17" s="18">
+        <v>0</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0</v>
+      </c>
+      <c r="P17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>0</v>
+      </c>
+      <c r="R17" s="18">
+        <v>15</v>
+      </c>
+      <c r="S17" s="18">
+        <v>0</v>
+      </c>
+      <c r="T17" s="18">
+        <v>0</v>
+      </c>
+      <c r="U17" s="18">
+        <v>0</v>
+      </c>
+      <c r="V17" s="18">
+        <v>0</v>
+      </c>
+      <c r="W17" s="18">
+        <v>0</v>
+      </c>
+      <c r="X17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="18">
+        <v>15</v>
+      </c>
+      <c r="AX17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="19"/>
+    </row>
+    <row r="18" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="18">
+        <v>0</v>
+      </c>
+      <c r="S18" s="18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="18">
+        <v>0</v>
+      </c>
+      <c r="V18" s="18">
+        <v>0</v>
+      </c>
+      <c r="W18" s="18">
+        <v>0</v>
+      </c>
+      <c r="X18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="30">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="19"/>
+    </row>
+    <row r="19" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
+        <v>7</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
+        <v>6</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19" s="18">
+        <v>0</v>
+      </c>
+      <c r="O19" s="18">
+        <v>0</v>
+      </c>
+      <c r="P19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>0</v>
+      </c>
+      <c r="R19" s="18">
         <v>3</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="18"/>
+      <c r="S19" s="18">
+        <v>0</v>
+      </c>
+      <c r="T19" s="18">
+        <v>0</v>
+      </c>
+      <c r="U19" s="18">
+        <v>0</v>
+      </c>
+      <c r="V19" s="18">
+        <v>15</v>
+      </c>
+      <c r="W19" s="18">
+        <v>0</v>
+      </c>
+      <c r="X19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="18">
+        <v>4</v>
+      </c>
+      <c r="AL19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="18">
+        <v>15</v>
+      </c>
+      <c r="AT19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="19"/>
+    </row>
+    <row r="20" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>15</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+      <c r="L20" s="18">
+        <v>0</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0</v>
+      </c>
+      <c r="N20" s="18">
+        <v>0</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0</v>
+      </c>
+      <c r="P20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>0</v>
+      </c>
+      <c r="R20" s="18">
+        <v>0</v>
+      </c>
+      <c r="S20" s="18">
+        <v>0</v>
+      </c>
+      <c r="T20" s="18">
+        <v>0</v>
+      </c>
+      <c r="U20" s="18">
+        <v>0</v>
+      </c>
+      <c r="V20" s="18">
+        <v>0</v>
+      </c>
+      <c r="W20" s="18">
+        <v>0</v>
+      </c>
+      <c r="X20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AI20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="18">
+        <v>4</v>
+      </c>
+      <c r="AK20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="18">
+        <v>15</v>
+      </c>
+      <c r="AT20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="19"/>
+    </row>
+    <row r="21" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="33">
+        <v>0</v>
+      </c>
+      <c r="E21" s="33">
+        <v>0</v>
+      </c>
+      <c r="F21" s="33">
+        <v>0</v>
+      </c>
+      <c r="G21" s="33">
+        <v>0</v>
+      </c>
+      <c r="H21" s="33">
+        <v>0</v>
+      </c>
+      <c r="I21" s="33">
+        <v>14</v>
+      </c>
+      <c r="J21" s="33">
+        <v>0</v>
+      </c>
+      <c r="K21" s="33">
+        <v>0</v>
+      </c>
+      <c r="L21" s="33">
+        <v>0</v>
+      </c>
+      <c r="M21" s="33">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="O21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="33">
+        <v>14</v>
+      </c>
+      <c r="R21" s="33">
+        <v>0</v>
+      </c>
+      <c r="S21" s="18">
+        <v>0</v>
+      </c>
+      <c r="T21" s="18">
+        <v>0</v>
+      </c>
+      <c r="U21" s="18">
+        <v>0</v>
+      </c>
+      <c r="V21" s="33">
+        <v>11</v>
+      </c>
+      <c r="W21" s="33">
+        <v>0</v>
+      </c>
+      <c r="X21" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="33">
+        <v>14</v>
+      </c>
+      <c r="Z21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="31">
+        <v>14</v>
+      </c>
+      <c r="AH21" s="33">
+        <v>6</v>
+      </c>
+      <c r="AI21" s="18">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="33">
+        <v>14</v>
+      </c>
+      <c r="AP21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="33">
+        <v>11</v>
+      </c>
+      <c r="AT21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="33">
+        <v>14</v>
+      </c>
+      <c r="AX21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="19"/>
+    </row>
+    <row r="22" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="18">
+        <v>4</v>
+      </c>
+      <c r="T22" s="18">
+        <v>4</v>
+      </c>
+      <c r="U22" s="35">
+        <v>4</v>
+      </c>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="35">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="18"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="19"/>
+    </row>
+    <row r="23" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="18">
+        <v>0</v>
+      </c>
+      <c r="T23" s="18">
+        <v>0</v>
+      </c>
+      <c r="U23" s="35">
+        <v>0</v>
+      </c>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="35">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="19"/>
+    </row>
+    <row r="24" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="18">
+        <v>0</v>
+      </c>
+      <c r="T24" s="18">
+        <v>0</v>
+      </c>
+      <c r="U24" s="35">
+        <v>0</v>
+      </c>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="35">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="19"/>
+    </row>
+    <row r="25" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="18">
+        <v>0</v>
+      </c>
+      <c r="T25" s="18">
+        <v>0</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0</v>
+      </c>
+      <c r="V25" s="14">
+        <v>3</v>
+      </c>
+      <c r="W25" s="14">
+        <v>0</v>
+      </c>
+      <c r="X25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="14">
+        <v>3</v>
+      </c>
+      <c r="AF25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="19"/>
+    </row>
+    <row r="26" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="18">
+        <v>0</v>
+      </c>
+      <c r="T26" s="18">
+        <v>0</v>
+      </c>
+      <c r="U26" s="18">
+        <v>0</v>
+      </c>
+      <c r="V26" s="18">
+        <v>0</v>
+      </c>
+      <c r="W26" s="18">
+        <v>0</v>
+      </c>
+      <c r="X26" s="18">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="18">
+        <v>3</v>
+      </c>
+      <c r="AJ26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
+      <c r="BA26" s="19"/>
+    </row>
+    <row r="27" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="33">
+        <v>0</v>
+      </c>
+      <c r="T27" s="22">
+        <v>3</v>
+      </c>
+      <c r="U27" s="22">
+        <v>0</v>
+      </c>
+      <c r="V27" s="33">
+        <v>0</v>
+      </c>
+      <c r="W27" s="33">
+        <v>0</v>
+      </c>
+      <c r="X27" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="33">
+        <v>3</v>
+      </c>
+      <c r="AH27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="33">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="14"/>
+      <c r="BA27" s="19"/>
+    </row>
+    <row r="28" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+      <c r="BA28" s="19"/>
+    </row>
+    <row r="29" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="26"/>
+      <c r="AZ29" s="26"/>
+      <c r="BA29" s="27"/>
+    </row>
+    <row r="30" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="16"/>
+    </row>
+    <row r="32" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="14"/>
+      <c r="AS32" s="14"/>
+      <c r="AT32" s="14"/>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="14"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="14"/>
+      <c r="AZ32" s="14"/>
+      <c r="BA32" s="19"/>
+    </row>
+    <row r="33" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="19"/>
+    </row>
+    <row r="34" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="14"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="14"/>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14"/>
+      <c r="AU34" s="14"/>
+      <c r="AV34" s="14"/>
+      <c r="AW34" s="14"/>
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="14"/>
+      <c r="AZ34" s="14"/>
+      <c r="BA34" s="19"/>
+    </row>
+    <row r="35" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AZ35" s="14"/>
+      <c r="BA35" s="19"/>
+    </row>
+    <row r="36" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="17"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="14">
+        <v>0</v>
+      </c>
+      <c r="D36" s="18">
+        <v>14</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
+        <v>0</v>
+      </c>
+      <c r="K36" s="18">
+        <v>0</v>
+      </c>
+      <c r="L36" s="18">
+        <v>14</v>
+      </c>
+      <c r="M36" s="18">
+        <v>0</v>
+      </c>
+      <c r="N36" s="18">
+        <v>0</v>
+      </c>
+      <c r="O36" s="18">
+        <v>0</v>
+      </c>
+      <c r="P36" s="18">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>0</v>
+      </c>
+      <c r="R36" s="18">
+        <v>0</v>
+      </c>
+      <c r="S36" s="18">
+        <v>0</v>
+      </c>
+      <c r="T36" s="18">
+        <v>14</v>
+      </c>
+      <c r="U36" s="18">
+        <v>0</v>
+      </c>
+      <c r="V36" s="18">
+        <v>0</v>
+      </c>
+      <c r="W36" s="18">
+        <v>0</v>
+      </c>
+      <c r="X36" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="18">
+        <v>14</v>
+      </c>
+      <c r="AC36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="34">
+        <v>5</v>
+      </c>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="18"/>
+      <c r="AZ36" s="18"/>
+      <c r="BA36" s="19"/>
+    </row>
+    <row r="37" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="17"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="14">
+        <v>0</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0</v>
+      </c>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0</v>
+      </c>
+      <c r="I37" s="18">
+        <v>0</v>
+      </c>
+      <c r="J37" s="18">
+        <v>0</v>
+      </c>
+      <c r="K37" s="18">
+        <v>0</v>
+      </c>
+      <c r="L37" s="18">
+        <v>0</v>
+      </c>
+      <c r="M37" s="18">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18">
+        <v>15</v>
+      </c>
+      <c r="O37" s="18">
+        <v>0</v>
+      </c>
+      <c r="P37" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>0</v>
+      </c>
+      <c r="R37" s="18">
+        <v>0</v>
+      </c>
+      <c r="S37" s="18">
+        <v>0</v>
+      </c>
+      <c r="T37" s="18">
+        <v>4</v>
+      </c>
+      <c r="U37" s="18">
+        <v>0</v>
+      </c>
+      <c r="V37" s="18">
+        <v>0</v>
+      </c>
+      <c r="W37" s="18">
+        <v>0</v>
+      </c>
+      <c r="X37" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="35">
+        <v>5</v>
+      </c>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="18"/>
+      <c r="AZ37" s="18"/>
+      <c r="BA37" s="19"/>
+    </row>
+    <row r="38" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="17"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="14">
+        <v>0</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0</v>
+      </c>
+      <c r="E38" s="18">
+        <v>0</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
+      <c r="I38" s="18">
+        <v>0</v>
+      </c>
+      <c r="J38" s="18">
+        <v>0</v>
+      </c>
+      <c r="K38" s="18">
+        <v>0</v>
+      </c>
+      <c r="L38" s="18">
+        <v>0</v>
+      </c>
+      <c r="M38" s="18">
+        <v>0</v>
+      </c>
+      <c r="N38" s="18">
+        <v>15</v>
+      </c>
+      <c r="O38" s="18">
+        <v>0</v>
+      </c>
+      <c r="P38" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>0</v>
+      </c>
+      <c r="R38" s="18">
+        <v>0</v>
+      </c>
+      <c r="S38" s="18">
+        <v>0</v>
+      </c>
+      <c r="T38" s="18">
+        <v>4</v>
+      </c>
+      <c r="U38" s="18">
+        <v>0</v>
+      </c>
+      <c r="V38" s="18">
+        <v>0</v>
+      </c>
+      <c r="W38" s="18">
+        <v>0</v>
+      </c>
+      <c r="X38" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="35">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="18"/>
+      <c r="AM38" s="18"/>
+      <c r="AZ38" s="18"/>
+      <c r="BA38" s="19"/>
+    </row>
+    <row r="39" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="17"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="18">
+        <v>0</v>
+      </c>
+      <c r="D39" s="18">
+        <v>0</v>
+      </c>
+      <c r="E39" s="18">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18">
+        <v>0</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0</v>
+      </c>
+      <c r="I39" s="18">
+        <v>0</v>
+      </c>
+      <c r="J39" s="18">
+        <v>0</v>
+      </c>
+      <c r="K39" s="18">
+        <v>0</v>
+      </c>
+      <c r="L39" s="18">
+        <v>0</v>
+      </c>
+      <c r="M39" s="18">
+        <v>0</v>
+      </c>
+      <c r="N39" s="18">
+        <v>3</v>
+      </c>
+      <c r="O39" s="18">
+        <v>0</v>
+      </c>
+      <c r="P39" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="18">
+        <v>0</v>
+      </c>
+      <c r="R39" s="18">
+        <v>0</v>
+      </c>
+      <c r="S39" s="18">
+        <v>0</v>
+      </c>
+      <c r="T39" s="18">
+        <v>0</v>
+      </c>
+      <c r="U39" s="18">
+        <v>0</v>
+      </c>
+      <c r="V39" s="18">
+        <v>0</v>
+      </c>
+      <c r="W39" s="18">
+        <v>0</v>
+      </c>
+      <c r="X39" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="35">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AZ39" s="18"/>
+      <c r="BA39" s="19"/>
+    </row>
+    <row r="40" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="17"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="18">
+        <v>0</v>
+      </c>
+      <c r="D40" s="18">
+        <v>0</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
+      <c r="I40" s="18">
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
+        <v>0</v>
+      </c>
+      <c r="K40" s="18">
+        <v>0</v>
+      </c>
+      <c r="L40" s="18">
+        <v>0</v>
+      </c>
+      <c r="M40" s="18">
+        <v>0</v>
+      </c>
+      <c r="N40" s="18">
+        <v>0</v>
+      </c>
+      <c r="O40" s="18">
+        <v>0</v>
+      </c>
+      <c r="P40" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="18">
+        <v>0</v>
+      </c>
+      <c r="R40" s="18">
+        <v>0</v>
+      </c>
+      <c r="S40" s="18">
+        <v>0</v>
+      </c>
+      <c r="T40" s="18">
+        <v>15</v>
+      </c>
+      <c r="U40" s="18">
+        <v>0</v>
+      </c>
+      <c r="V40" s="18">
+        <v>0</v>
+      </c>
+      <c r="W40" s="18">
+        <v>0</v>
+      </c>
+      <c r="X40" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="18">
+        <v>15</v>
+      </c>
+      <c r="AA40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="35">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="18"/>
+      <c r="AM40" s="18"/>
+      <c r="AZ40" s="18"/>
+      <c r="BA40" s="19"/>
+    </row>
+    <row r="41" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="17"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="18">
+        <v>0</v>
+      </c>
+      <c r="D41" s="18">
+        <v>0</v>
+      </c>
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18">
+        <v>0</v>
+      </c>
+      <c r="I41" s="18">
+        <v>0</v>
+      </c>
+      <c r="J41" s="18">
+        <v>0</v>
+      </c>
+      <c r="K41" s="18">
+        <v>0</v>
+      </c>
+      <c r="L41" s="18">
+        <v>0</v>
+      </c>
+      <c r="M41" s="18">
+        <v>0</v>
+      </c>
+      <c r="N41" s="18">
+        <v>3</v>
+      </c>
+      <c r="O41" s="18">
+        <v>0</v>
+      </c>
+      <c r="P41" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>0</v>
+      </c>
+      <c r="R41" s="18">
+        <v>0</v>
+      </c>
+      <c r="S41" s="18">
+        <v>0</v>
+      </c>
+      <c r="T41" s="18">
+        <v>15</v>
+      </c>
+      <c r="U41" s="18">
+        <v>0</v>
+      </c>
+      <c r="V41" s="18">
+        <v>0</v>
+      </c>
+      <c r="W41" s="18">
+        <v>15</v>
+      </c>
+      <c r="X41" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="18">
+        <v>15</v>
+      </c>
+      <c r="AC41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="35">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="18"/>
+      <c r="AZ41" s="18"/>
+      <c r="BA41" s="19"/>
+    </row>
+    <row r="42" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="17"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="41">
+        <v>0</v>
+      </c>
+      <c r="D42" s="33">
+        <v>0</v>
+      </c>
+      <c r="E42" s="33">
+        <v>0</v>
+      </c>
+      <c r="F42" s="33">
+        <v>0</v>
+      </c>
+      <c r="G42" s="33">
+        <v>0</v>
+      </c>
+      <c r="H42" s="33">
+        <v>14</v>
+      </c>
+      <c r="I42" s="33">
+        <v>0</v>
+      </c>
+      <c r="J42" s="33">
+        <v>0</v>
+      </c>
+      <c r="K42" s="33">
+        <v>0</v>
+      </c>
+      <c r="L42" s="33">
+        <v>0</v>
+      </c>
+      <c r="M42" s="33">
+        <v>0</v>
+      </c>
+      <c r="N42" s="33">
+        <v>0</v>
+      </c>
+      <c r="O42" s="33">
+        <v>0</v>
+      </c>
+      <c r="P42" s="33">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="33">
+        <v>0</v>
+      </c>
+      <c r="R42" s="33">
+        <v>0</v>
+      </c>
+      <c r="S42" s="33">
+        <v>0</v>
+      </c>
+      <c r="T42" s="33">
+        <v>11</v>
+      </c>
+      <c r="U42" s="33">
+        <v>0</v>
+      </c>
+      <c r="V42" s="33">
+        <v>0</v>
+      </c>
+      <c r="W42" s="33">
+        <v>0</v>
+      </c>
+      <c r="X42" s="33">
+        <v>14</v>
+      </c>
+      <c r="Y42" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="33">
+        <v>14</v>
+      </c>
+      <c r="AG42" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="33">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="18"/>
+      <c r="AZ42" s="18"/>
+      <c r="BA42" s="19"/>
+    </row>
+    <row r="43" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="14"/>
+      <c r="AZ43" s="14"/>
+      <c r="BA43" s="19"/>
+    </row>
+    <row r="44" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="22"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="14"/>
+      <c r="AN44" s="14"/>
+      <c r="AO44" s="14"/>
+      <c r="AP44" s="14"/>
+      <c r="AZ44" s="14"/>
+      <c r="BA44" s="19"/>
+    </row>
+    <row r="45" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="12"/>
+      <c r="X45">
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>12</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>1</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>12</v>
+      </c>
+      <c r="AF45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="14"/>
+      <c r="AM45" s="14"/>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="14"/>
+      <c r="AP45" s="14"/>
+      <c r="AZ45" s="14"/>
+      <c r="BA45" s="19"/>
+    </row>
+    <row r="46" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="12"/>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>12</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>12</v>
+      </c>
+      <c r="AF46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AZ46" s="14"/>
+      <c r="BA46" s="19"/>
+    </row>
+    <row r="47" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="12"/>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>12</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="14"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="14"/>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="14"/>
+      <c r="AP47" s="14"/>
+      <c r="AZ47" s="14"/>
+      <c r="BA47" s="19"/>
+    </row>
+    <row r="48" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="12"/>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>3</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <v>13</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AD48">
+        <v>3</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="14"/>
+      <c r="AK48" s="14"/>
+      <c r="AL48" s="14"/>
+      <c r="AM48" s="14"/>
+      <c r="AN48" s="14"/>
+      <c r="AO48" s="14"/>
+      <c r="AP48" s="14"/>
+      <c r="AZ48" s="14"/>
+      <c r="BA48" s="19"/>
+    </row>
+    <row r="49" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="17"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="12"/>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>3</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14"/>
+      <c r="AM49" s="14"/>
+      <c r="AN49" s="14"/>
+      <c r="AO49" s="14"/>
+      <c r="AP49" s="14"/>
+      <c r="AZ49" s="14"/>
+      <c r="BA49" s="19"/>
+    </row>
+    <row r="50" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="17"/>
+      <c r="W50" s="12"/>
+      <c r="X50">
+        <v>8</v>
+      </c>
+      <c r="Y50">
+        <v>8</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>7</v>
+      </c>
+      <c r="AF50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="14"/>
+      <c r="AO50" s="14"/>
+      <c r="AP50" s="14"/>
+      <c r="BA50" s="19"/>
+    </row>
+    <row r="51" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="17"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="22">
+        <v>8</v>
+      </c>
+      <c r="Y51" s="22">
+        <v>8</v>
+      </c>
+      <c r="Z51" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="22">
+        <v>7</v>
+      </c>
+      <c r="AD51" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="14"/>
+      <c r="AN51" s="14"/>
+      <c r="AO51" s="14"/>
+      <c r="AP51" s="14"/>
+      <c r="BA51" s="19"/>
+    </row>
+    <row r="52" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="17"/>
+      <c r="AM52" s="14"/>
+      <c r="AN52" s="14"/>
+      <c r="AO52" s="14"/>
+      <c r="AP52" s="14"/>
+      <c r="BA52" s="19"/>
+    </row>
+    <row r="53" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="26"/>
+      <c r="W53" s="26"/>
+      <c r="X53" s="26"/>
+      <c r="Y53" s="26"/>
+      <c r="Z53" s="26"/>
+      <c r="AA53" s="26"/>
+      <c r="AB53" s="26"/>
+      <c r="AC53" s="26"/>
+      <c r="AD53" s="26"/>
+      <c r="AE53" s="26"/>
+      <c r="AF53" s="26"/>
+      <c r="AG53" s="26"/>
+      <c r="AH53" s="26"/>
+      <c r="AI53" s="26"/>
+      <c r="AJ53" s="26"/>
+      <c r="AK53" s="26"/>
+      <c r="AL53" s="26"/>
+      <c r="AM53" s="26"/>
+      <c r="AN53" s="26"/>
+      <c r="AO53" s="26"/>
+      <c r="AP53" s="26"/>
+      <c r="AQ53" s="26"/>
+      <c r="AR53" s="26"/>
+      <c r="AS53" s="26"/>
+      <c r="AT53" s="26"/>
+      <c r="AU53" s="26"/>
+      <c r="AV53" s="26"/>
+      <c r="AW53" s="26"/>
+      <c r="AX53" s="26"/>
+      <c r="AY53" s="26"/>
+      <c r="AZ53" s="26"/>
+      <c r="BA53" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="21">
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="P1:U1"/>
@@ -952,44 +5644,100 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="W5:AB5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="10" priority="34">
+  <conditionalFormatting sqref="AW6:AZ6 F6:U6 A6">
+    <cfRule type="expression" dxfId="26" priority="133">
+      <formula>A6="P"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="134">
+      <formula>A6=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="135">
+      <formula>A6=9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="136">
+      <formula>A6=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="137">
+      <formula>A6=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="138">
+      <formula>A6=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="139">
+      <formula>A6=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="140">
+      <formula>A6=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="141">
+      <formula>A6=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="142">
+      <formula>A6=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="143">
+      <formula>A6=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:BA34 A53:BA53 AZ35:BA52 A35:AM52">
+    <cfRule type="expression" dxfId="15" priority="144">
+      <formula>A1=15</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="145">
+      <formula>A1=14</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="146">
+      <formula>A1=13</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="147">
+      <formula>A1=12</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="148">
+      <formula>A1=11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="182">
       <formula>A1="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="35">
+    <cfRule type="expression" dxfId="9" priority="183">
       <formula>A1=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="36">
+    <cfRule type="expression" dxfId="8" priority="184">
       <formula>A1=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="37">
+    <cfRule type="expression" dxfId="7" priority="185">
       <formula>A1=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="38">
+    <cfRule type="expression" dxfId="6" priority="186">
       <formula>A1=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="39">
+    <cfRule type="expression" dxfId="5" priority="187">
       <formula>A1=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="40">
+    <cfRule type="expression" dxfId="4" priority="188">
       <formula>A1=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="41">
+    <cfRule type="expression" dxfId="3" priority="189">
       <formula>A1=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="2" priority="190">
       <formula>A1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="1" priority="191">
       <formula>A1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="44">
+    <cfRule type="expression" dxfId="0" priority="192">
       <formula>A1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/stage/stage_2_City.xlsx
+++ b/stage/stage_2_City.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>床</t>
     <rPh sb="0" eb="1">
@@ -144,13 +144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2層</t>
-    <rPh sb="1" eb="2">
-      <t>ソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>車</t>
     <rPh sb="0" eb="1">
       <t>クルマ</t>
@@ -164,6 +157,17 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレットペーパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水ルート</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -205,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -470,49 +474,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -570,13 +537,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,59 +627,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -709,37 +711,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,96 +1030,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="695325" y="9010650"/>
-          <a:ext cx="558800" cy="320675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>層へ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>168729</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>153761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>216354</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>226785</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1147,8 +1048,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="5267325"/>
-          <a:ext cx="876300" cy="320675"/>
+          <a:off x="1257300" y="6162675"/>
+          <a:ext cx="864054" cy="323396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1201,16 +1102,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>223157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63954</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45811</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1219,8 +1120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="3086100"/>
-          <a:ext cx="876300" cy="320675"/>
+          <a:off x="560614" y="2476500"/>
+          <a:ext cx="864054" cy="323397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1537,238 +1438,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA53"/>
+  <dimension ref="A1:CI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC20" sqref="BC20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="54"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
       <c r="O1" s="8">
         <v>10</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="54"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="52"/>
       <c r="V1" s="11">
         <v>15</v>
       </c>
-      <c r="W1" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="44"/>
+      <c r="W1" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="53"/>
     </row>
-    <row r="2" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="52"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
       <c r="O2" s="9">
         <v>11</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="52"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="46"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="47"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="54"/>
     </row>
-    <row r="3" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="52"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="2">
         <v>7</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="52"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
       <c r="O3" s="9">
         <v>12</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="52"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="47"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="54"/>
     </row>
-    <row r="4" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="52"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="2">
         <v>8</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="52"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
       <c r="O4" s="9">
         <v>13</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="52"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="46"/>
       <c r="V4" s="12"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="47"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="54"/>
     </row>
-    <row r="5" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:87" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="53"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="53"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="10">
         <v>14</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="53"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="49"/>
       <c r="V5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="50"/>
+      <c r="W5" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="55"/>
     </row>
-    <row r="6" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:87" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="14"/>
@@ -1786,8 +1689,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="15"/>
@@ -1843,7 +1746,7 @@
       <c r="AZ7" s="15"/>
       <c r="BA7" s="16"/>
     </row>
-    <row r="8" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1853,24 +1756,24 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
@@ -1898,7 +1801,7 @@
       <c r="AZ8" s="14"/>
       <c r="BA8" s="19"/>
     </row>
-    <row r="9" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1907,61 +1810,25 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
-      <c r="N9" s="18">
-        <v>10</v>
-      </c>
-      <c r="O9" s="18">
-        <v>0</v>
-      </c>
-      <c r="P9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>0</v>
-      </c>
-      <c r="R9" s="18">
-        <v>0</v>
-      </c>
-      <c r="S9" s="18">
-        <v>0</v>
-      </c>
-      <c r="T9" s="18">
-        <v>0</v>
-      </c>
-      <c r="U9" s="18">
-        <v>0</v>
-      </c>
-      <c r="V9" s="18">
-        <v>0</v>
-      </c>
-      <c r="W9" s="18">
-        <v>0</v>
-      </c>
-      <c r="X9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="12">
-        <v>0</v>
-      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
@@ -1989,7 +1856,7 @@
       <c r="AZ9" s="14"/>
       <c r="BA9" s="19"/>
     </row>
-    <row r="10" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1998,61 +1865,25 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <v>9</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18">
-        <v>0</v>
-      </c>
-      <c r="O10" s="18">
-        <v>0</v>
-      </c>
-      <c r="P10" s="18">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>0</v>
-      </c>
-      <c r="R10" s="18">
-        <v>0</v>
-      </c>
-      <c r="S10" s="18">
-        <v>0</v>
-      </c>
-      <c r="T10" s="18">
-        <v>0</v>
-      </c>
-      <c r="U10" s="18">
-        <v>7</v>
-      </c>
-      <c r="V10" s="18">
-        <v>0</v>
-      </c>
-      <c r="W10" s="18">
-        <v>0</v>
-      </c>
-      <c r="X10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="12">
-        <v>0</v>
-      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
@@ -2080,7 +1911,7 @@
       <c r="AZ10" s="14"/>
       <c r="BA10" s="19"/>
     </row>
-    <row r="11" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -2089,61 +1920,25 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="33">
-        <v>0</v>
-      </c>
-      <c r="N11" s="33">
-        <v>0</v>
-      </c>
-      <c r="O11" s="33">
-        <v>0</v>
-      </c>
-      <c r="P11" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="33">
-        <v>0</v>
-      </c>
-      <c r="R11" s="33">
-        <v>0</v>
-      </c>
-      <c r="S11" s="33">
-        <v>0</v>
-      </c>
-      <c r="T11" s="33">
-        <v>0</v>
-      </c>
-      <c r="U11" s="33">
-        <v>0</v>
-      </c>
-      <c r="V11" s="33">
-        <v>0</v>
-      </c>
-      <c r="W11" s="33">
-        <v>0</v>
-      </c>
-      <c r="X11" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="12">
-        <v>0</v>
-      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
@@ -2171,7 +1966,7 @@
       <c r="AZ11" s="14"/>
       <c r="BA11" s="19"/>
     </row>
-    <row r="12" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -2180,16 +1975,10 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
@@ -2201,16 +1990,10 @@
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="18">
-        <v>6</v>
-      </c>
-      <c r="AA12" s="12">
-        <v>0</v>
-      </c>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
@@ -2238,7 +2021,7 @@
       <c r="AZ12" s="14"/>
       <c r="BA12" s="19"/>
     </row>
-    <row r="13" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -2247,16 +2030,10 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
@@ -2268,26 +2045,22 @@
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="12">
-        <v>0</v>
-      </c>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
       <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
+      <c r="AH13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
       <c r="AL13" s="14"/>
       <c r="AM13" s="14"/>
       <c r="AN13" s="14"/>
@@ -2305,7 +2078,7 @@
       <c r="AZ13" s="14"/>
       <c r="BA13" s="19"/>
     </row>
-    <row r="14" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -2314,37 +2087,25 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="14">
-        <v>4</v>
-      </c>
-      <c r="K14" s="14">
-        <v>4</v>
-      </c>
-      <c r="L14" s="12">
-        <v>4</v>
-      </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="18">
-        <v>7</v>
-      </c>
-      <c r="AA14" s="12">
-        <v>0</v>
-      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="22"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
@@ -2372,28 +2133,28 @@
       <c r="AZ14" s="14"/>
       <c r="BA14" s="19"/>
     </row>
-    <row r="15" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="14"/>
       <c r="C15" s="20">
         <v>0</v>
       </c>
-      <c r="D15" s="32">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="28">
         <v>14</v>
       </c>
-      <c r="F15" s="32">
-        <v>0</v>
-      </c>
-      <c r="G15" s="32">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32">
-        <v>0</v>
-      </c>
-      <c r="I15" s="32">
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
         <v>0</v>
       </c>
       <c r="J15" s="18">
@@ -2405,31 +2166,31 @@
       <c r="L15" s="18">
         <v>0</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="18">
         <v>14</v>
       </c>
-      <c r="N15" s="32">
-        <v>0</v>
-      </c>
-      <c r="O15" s="32">
-        <v>0</v>
-      </c>
-      <c r="P15" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="32">
-        <v>0</v>
-      </c>
-      <c r="R15" s="32">
+      <c r="N15" s="18">
+        <v>0</v>
+      </c>
+      <c r="O15" s="18">
+        <v>0</v>
+      </c>
+      <c r="P15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>0</v>
+      </c>
+      <c r="R15" s="18">
         <v>11</v>
       </c>
-      <c r="S15" s="32">
-        <v>0</v>
-      </c>
-      <c r="T15" s="32">
-        <v>0</v>
-      </c>
-      <c r="U15" s="32">
+      <c r="S15" s="18">
+        <v>0</v>
+      </c>
+      <c r="T15" s="18">
+        <v>0</v>
+      </c>
+      <c r="U15" s="18">
         <v>14</v>
       </c>
       <c r="V15" s="18">
@@ -2439,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y15" s="18">
         <v>0</v>
@@ -2450,82 +2211,186 @@
       <c r="AA15" s="18">
         <v>0</v>
       </c>
-      <c r="AB15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="32">
+      <c r="AB15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="28">
         <v>14</v>
       </c>
-      <c r="AD15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="32">
+      <c r="AD15" s="28">
         <v>5</v>
       </c>
-      <c r="AF15" s="32">
+      <c r="AE15" s="28">
         <v>5</v>
       </c>
-      <c r="AG15" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="32">
+      <c r="AF15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="28">
         <v>14</v>
       </c>
-      <c r="AL15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="32">
+      <c r="AL15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="28">
         <v>11</v>
       </c>
-      <c r="AP15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="32">
+      <c r="AP15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="28">
         <v>14</v>
       </c>
-      <c r="AT15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="32">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="37">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="18"/>
-      <c r="BA15" s="19"/>
+      <c r="AT15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="41">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="28">
+        <v>14</v>
+      </c>
+      <c r="BB15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="28">
+        <v>7</v>
+      </c>
+      <c r="BD15" s="28">
+        <v>3</v>
+      </c>
+      <c r="BE15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="28">
+        <v>14</v>
+      </c>
+      <c r="BJ15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="28">
+        <v>11</v>
+      </c>
+      <c r="BN15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="28">
+        <v>14</v>
+      </c>
+      <c r="BR15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="28">
+        <v>4</v>
+      </c>
+      <c r="BV15" s="28">
+        <v>7</v>
+      </c>
+      <c r="BW15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="28">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="28">
+        <v>14</v>
+      </c>
+      <c r="BZ15" s="28">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="28">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="28">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="28">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="28">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="28">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="28">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="28">
+        <v>3</v>
+      </c>
+      <c r="CH15" s="30">
+        <v>5</v>
+      </c>
+      <c r="CI15" s="18"/>
     </row>
-    <row r="16" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17"/>
       <c r="B16" s="14"/>
       <c r="C16" s="9">
@@ -2574,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S16" s="18">
         <v>0</v>
@@ -2592,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y16" s="18">
         <v>0</v>
@@ -2618,11 +2483,11 @@
       <c r="AF16" s="18">
         <v>4</v>
       </c>
-      <c r="AG16" s="30">
-        <v>0</v>
+      <c r="AG16" s="18">
+        <v>4</v>
       </c>
       <c r="AH16" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI16" s="18">
         <v>0</v>
@@ -2672,13 +2537,117 @@
       <c r="AX16" s="18">
         <v>0</v>
       </c>
-      <c r="AY16" s="38">
+      <c r="AY16" s="34">
         <v>15</v>
       </c>
-      <c r="AZ16" s="18"/>
-      <c r="BA16" s="19"/>
+      <c r="AZ16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="18">
+        <v>7</v>
+      </c>
+      <c r="BD16" s="18">
+        <v>3</v>
+      </c>
+      <c r="BE16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="18">
+        <v>15</v>
+      </c>
+      <c r="BL16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="18">
+        <v>15</v>
+      </c>
+      <c r="BN16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="18">
+        <v>4</v>
+      </c>
+      <c r="BR16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="18">
+        <v>4</v>
+      </c>
+      <c r="BV16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BW16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BY16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="18">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="18">
+        <v>0</v>
+      </c>
+      <c r="CB16" s="18">
+        <v>0</v>
+      </c>
+      <c r="CC16" s="18">
+        <v>0</v>
+      </c>
+      <c r="CD16" s="18">
+        <v>0</v>
+      </c>
+      <c r="CE16" s="18">
+        <v>7</v>
+      </c>
+      <c r="CF16" s="18">
+        <v>0</v>
+      </c>
+      <c r="CG16" s="18">
+        <v>3</v>
+      </c>
+      <c r="CH16" s="31">
+        <v>5</v>
+      </c>
+      <c r="CI16" s="18"/>
     </row>
-    <row r="17" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
       <c r="B17" s="14"/>
       <c r="C17" s="9">
@@ -2745,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y17" s="18">
         <v>0</v>
@@ -2766,12 +2735,12 @@
         <v>0</v>
       </c>
       <c r="AE17" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF17" s="18">
         <v>0</v>
       </c>
-      <c r="AG17" s="30">
+      <c r="AG17" s="18">
         <v>0</v>
       </c>
       <c r="AH17" s="18">
@@ -2825,13 +2794,117 @@
       <c r="AX17" s="18">
         <v>0</v>
       </c>
-      <c r="AY17" s="38">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="18"/>
-      <c r="BA17" s="19"/>
+      <c r="AY17" s="34">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="18">
+        <v>7</v>
+      </c>
+      <c r="BD17" s="18">
+        <v>3</v>
+      </c>
+      <c r="BE17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="18">
+        <v>15</v>
+      </c>
+      <c r="BL17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="18">
+        <v>15</v>
+      </c>
+      <c r="BN17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="18">
+        <v>4</v>
+      </c>
+      <c r="BR17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="18">
+        <v>4</v>
+      </c>
+      <c r="BV17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="18">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="18">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="18">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="18">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="18">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="18">
+        <v>7</v>
+      </c>
+      <c r="CF17" s="18">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="18">
+        <v>3</v>
+      </c>
+      <c r="CH17" s="31">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="18"/>
     </row>
-    <row r="18" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17"/>
       <c r="B18" s="14"/>
       <c r="C18" s="9">
@@ -2898,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y18" s="18">
         <v>0</v>
@@ -2919,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="AE18" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF18" s="18">
         <v>0</v>
       </c>
-      <c r="AG18" s="30">
-        <v>2</v>
+      <c r="AG18" s="18">
+        <v>0</v>
       </c>
       <c r="AH18" s="18">
         <v>0</v>
@@ -2978,13 +3051,117 @@
       <c r="AX18" s="18">
         <v>0</v>
       </c>
-      <c r="AY18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="19"/>
+      <c r="AY18" s="34">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="18">
+        <v>7</v>
+      </c>
+      <c r="BD18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="18">
+        <v>3</v>
+      </c>
+      <c r="BH18" s="18">
+        <v>4</v>
+      </c>
+      <c r="BI18" s="18">
+        <v>4</v>
+      </c>
+      <c r="BJ18" s="18">
+        <v>4</v>
+      </c>
+      <c r="BK18" s="18">
+        <v>3</v>
+      </c>
+      <c r="BL18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="18">
+        <v>5</v>
+      </c>
+      <c r="BR18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="18">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="18">
+        <v>0</v>
+      </c>
+      <c r="CB18" s="18">
+        <v>0</v>
+      </c>
+      <c r="CC18" s="18">
+        <v>0</v>
+      </c>
+      <c r="CD18" s="18">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="18">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="18">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="18">
+        <v>3</v>
+      </c>
+      <c r="CH18" s="31">
+        <v>0</v>
+      </c>
+      <c r="CI18" s="18"/>
     </row>
-    <row r="19" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
       <c r="B19" s="14"/>
       <c r="C19" s="9">
@@ -3051,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y19" s="18">
         <v>0</v>
@@ -3072,12 +3249,12 @@
         <v>0</v>
       </c>
       <c r="AE19" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF19" s="18">
         <v>0</v>
       </c>
-      <c r="AG19" s="30">
+      <c r="AG19" s="18">
         <v>0</v>
       </c>
       <c r="AH19" s="18">
@@ -3102,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP19" s="18">
         <v>0</v>
@@ -3131,13 +3308,117 @@
       <c r="AX19" s="18">
         <v>0</v>
       </c>
-      <c r="AY19" s="38">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="19"/>
+      <c r="AY19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="18">
+        <v>3</v>
+      </c>
+      <c r="BJ19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="18">
+        <v>3</v>
+      </c>
+      <c r="BN19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="18">
+        <v>15</v>
+      </c>
+      <c r="BR19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="18">
+        <v>15</v>
+      </c>
+      <c r="BX19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BY19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="18">
+        <v>0</v>
+      </c>
+      <c r="CA19" s="18">
+        <v>0</v>
+      </c>
+      <c r="CB19" s="18">
+        <v>0</v>
+      </c>
+      <c r="CC19" s="18">
+        <v>0</v>
+      </c>
+      <c r="CD19" s="18">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="18">
+        <v>7</v>
+      </c>
+      <c r="CF19" s="18">
+        <v>0</v>
+      </c>
+      <c r="CG19" s="18">
+        <v>0</v>
+      </c>
+      <c r="CH19" s="31">
+        <v>0</v>
+      </c>
+      <c r="CI19" s="18"/>
     </row>
-    <row r="20" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17"/>
       <c r="B20" s="14"/>
       <c r="C20" s="9">
@@ -3204,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y20" s="18">
         <v>0</v>
@@ -3225,12 +3506,12 @@
         <v>0</v>
       </c>
       <c r="AE20" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF20" s="18">
         <v>0</v>
       </c>
-      <c r="AG20" s="30">
+      <c r="AG20" s="18">
         <v>0</v>
       </c>
       <c r="AH20" s="18">
@@ -3255,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="AO20" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP20" s="18">
         <v>0</v>
@@ -3284,61 +3565,165 @@
       <c r="AX20" s="18">
         <v>0</v>
       </c>
-      <c r="AY20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="18"/>
-      <c r="BA20" s="19"/>
+      <c r="AY20" s="34">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="18">
+        <v>4</v>
+      </c>
+      <c r="BA20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="18">
+        <v>3</v>
+      </c>
+      <c r="BH20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="18">
+        <v>3</v>
+      </c>
+      <c r="BL20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="18">
+        <v>15</v>
+      </c>
+      <c r="BR20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BS20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BT20" s="18">
+        <v>15</v>
+      </c>
+      <c r="BU20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BW20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BY20" s="18">
+        <v>15</v>
+      </c>
+      <c r="BZ20" s="18">
+        <v>0</v>
+      </c>
+      <c r="CA20" s="18">
+        <v>0</v>
+      </c>
+      <c r="CB20" s="18">
+        <v>0</v>
+      </c>
+      <c r="CC20" s="18">
+        <v>0</v>
+      </c>
+      <c r="CD20" s="18">
+        <v>0</v>
+      </c>
+      <c r="CE20" s="18">
+        <v>7</v>
+      </c>
+      <c r="CF20" s="18">
+        <v>0</v>
+      </c>
+      <c r="CG20" s="18">
+        <v>0</v>
+      </c>
+      <c r="CH20" s="31">
+        <v>0</v>
+      </c>
+      <c r="CI20" s="18"/>
     </row>
-    <row r="21" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="14"/>
       <c r="C21" s="24">
         <v>0</v>
       </c>
-      <c r="D21" s="33">
-        <v>0</v>
-      </c>
-      <c r="E21" s="33">
-        <v>0</v>
-      </c>
-      <c r="F21" s="33">
-        <v>0</v>
-      </c>
-      <c r="G21" s="33">
-        <v>0</v>
-      </c>
-      <c r="H21" s="33">
-        <v>0</v>
-      </c>
-      <c r="I21" s="33">
+      <c r="D21" s="29">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0</v>
+      </c>
+      <c r="F21" s="29">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0</v>
+      </c>
+      <c r="I21" s="29">
         <v>14</v>
       </c>
-      <c r="J21" s="33">
-        <v>0</v>
-      </c>
-      <c r="K21" s="33">
-        <v>0</v>
-      </c>
-      <c r="L21" s="33">
-        <v>0</v>
-      </c>
-      <c r="M21" s="33">
-        <v>0</v>
-      </c>
-      <c r="N21" s="33">
-        <v>0</v>
-      </c>
-      <c r="O21" s="33">
-        <v>0</v>
-      </c>
-      <c r="P21" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="33">
+      <c r="J21" s="29">
+        <v>0</v>
+      </c>
+      <c r="K21" s="29">
+        <v>0</v>
+      </c>
+      <c r="L21" s="29">
+        <v>0</v>
+      </c>
+      <c r="M21" s="29">
+        <v>0</v>
+      </c>
+      <c r="N21" s="29">
+        <v>0</v>
+      </c>
+      <c r="O21" s="29">
+        <v>0</v>
+      </c>
+      <c r="P21" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="18">
         <v>14</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="18">
         <v>0</v>
       </c>
       <c r="S21" s="18">
@@ -3350,100 +3735,204 @@
       <c r="U21" s="18">
         <v>0</v>
       </c>
-      <c r="V21" s="33">
+      <c r="V21" s="18">
         <v>11</v>
       </c>
-      <c r="W21" s="33">
-        <v>0</v>
-      </c>
-      <c r="X21" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="33">
+      <c r="W21" s="18">
+        <v>0</v>
+      </c>
+      <c r="X21" s="29">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="29">
         <v>14</v>
       </c>
-      <c r="Z21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="31">
+      <c r="Z21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="29">
         <v>14</v>
       </c>
-      <c r="AH21" s="33">
+      <c r="AH21" s="29">
         <v>6</v>
       </c>
-      <c r="AI21" s="18">
+      <c r="AI21" s="29">
         <v>4</v>
       </c>
-      <c r="AJ21" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="33">
+      <c r="AJ21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="29">
         <v>14</v>
       </c>
-      <c r="AP21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="33">
+      <c r="AP21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="29">
         <v>11</v>
       </c>
-      <c r="AT21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="33">
+      <c r="AT21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="29">
         <v>14</v>
       </c>
-      <c r="AX21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="18"/>
-      <c r="BA21" s="19"/>
+      <c r="AX21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="35">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="36">
+        <v>4</v>
+      </c>
+      <c r="BA21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="29">
+        <v>14</v>
+      </c>
+      <c r="BF21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="29">
+        <v>4</v>
+      </c>
+      <c r="BH21" s="29">
+        <v>4</v>
+      </c>
+      <c r="BI21" s="29">
+        <v>5</v>
+      </c>
+      <c r="BJ21" s="29">
+        <v>4</v>
+      </c>
+      <c r="BK21" s="29">
+        <v>4</v>
+      </c>
+      <c r="BL21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="29">
+        <v>14</v>
+      </c>
+      <c r="BN21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="29">
+        <v>11</v>
+      </c>
+      <c r="BR21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="18">
+        <v>14</v>
+      </c>
+      <c r="BV21" s="18">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="18">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="18">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="18">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="18">
+        <v>0</v>
+      </c>
+      <c r="CA21" s="18">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="29">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="29">
+        <v>14</v>
+      </c>
+      <c r="CD21" s="29">
+        <v>0</v>
+      </c>
+      <c r="CE21" s="29">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="29">
+        <v>0</v>
+      </c>
+      <c r="CG21" s="29">
+        <v>0</v>
+      </c>
+      <c r="CH21" s="32">
+        <v>0</v>
+      </c>
+      <c r="CI21" s="18"/>
     </row>
-    <row r="22" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -3460,19 +3949,27 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="21"/>
+      <c r="Q22" s="38">
+        <v>3</v>
+      </c>
+      <c r="R22" s="18">
+        <v>3</v>
+      </c>
       <c r="S22" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T22" s="18">
-        <v>4</v>
-      </c>
-      <c r="U22" s="35">
-        <v>4</v>
-      </c>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="U22" s="18">
+        <v>3</v>
+      </c>
+      <c r="V22" s="18">
+        <v>3</v>
+      </c>
+      <c r="W22" s="31">
+        <v>3</v>
+      </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="18"/>
       <c r="Z22" s="14"/>
@@ -3483,16 +3980,10 @@
       <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
       <c r="AG22" s="18"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="18">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="35">
-        <v>0</v>
-      </c>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
       <c r="AL22" s="14"/>
       <c r="AM22" s="14"/>
       <c r="AN22" s="14"/>
@@ -3508,9 +3999,57 @@
       <c r="AX22" s="14"/>
       <c r="AY22" s="14"/>
       <c r="AZ22" s="14"/>
-      <c r="BA22" s="19"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="14"/>
+      <c r="BC22" s="14"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
+      <c r="BG22" s="14"/>
+      <c r="BH22" s="14"/>
+      <c r="BI22" s="14"/>
+      <c r="BJ22" s="14"/>
+      <c r="BK22" s="14"/>
+      <c r="BL22" s="14"/>
+      <c r="BM22" s="14"/>
+      <c r="BN22" s="14"/>
+      <c r="BO22" s="14"/>
+      <c r="BP22" s="14"/>
+      <c r="BQ22" s="14"/>
+      <c r="BR22" s="14"/>
+      <c r="BS22" s="14"/>
+      <c r="BT22" s="21"/>
+      <c r="BU22">
+        <v>12</v>
+      </c>
+      <c r="BV22">
+        <v>1</v>
+      </c>
+      <c r="BW22">
+        <v>1</v>
+      </c>
+      <c r="BX22">
+        <v>1</v>
+      </c>
+      <c r="BY22">
+        <v>1</v>
+      </c>
+      <c r="BZ22">
+        <v>1</v>
+      </c>
+      <c r="CA22" s="31">
+        <v>10</v>
+      </c>
+      <c r="CB22" s="14"/>
+      <c r="CC22" s="14"/>
+      <c r="CD22" s="14"/>
+      <c r="CE22" s="14"/>
+      <c r="CF22" s="14"/>
+      <c r="CG22" s="14"/>
+      <c r="CH22" s="14"/>
+      <c r="CI22" s="14"/>
     </row>
-    <row r="23" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -3527,39 +4066,43 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="12"/>
+      <c r="Q23" s="38">
+        <v>0</v>
+      </c>
+      <c r="R23" s="18">
+        <v>0</v>
+      </c>
       <c r="S23" s="18">
         <v>0</v>
       </c>
       <c r="T23" s="18">
         <v>0</v>
       </c>
-      <c r="U23" s="35">
-        <v>0</v>
-      </c>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
+      <c r="U23" s="18">
+        <v>0</v>
+      </c>
+      <c r="V23" s="18">
+        <v>0</v>
+      </c>
+      <c r="W23" s="31">
+        <v>0</v>
+      </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
+      <c r="AD23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
       <c r="AG23" s="14"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="18">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="35">
-        <v>0</v>
-      </c>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
       <c r="AL23" s="14"/>
       <c r="AM23" s="14"/>
       <c r="AN23" s="14"/>
@@ -3575,9 +4118,57 @@
       <c r="AX23" s="14"/>
       <c r="AY23" s="14"/>
       <c r="AZ23" s="14"/>
-      <c r="BA23" s="19"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="14"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="14"/>
+      <c r="BG23" s="14"/>
+      <c r="BH23" s="14"/>
+      <c r="BI23" s="14"/>
+      <c r="BJ23" s="14"/>
+      <c r="BK23" s="14"/>
+      <c r="BL23" s="14"/>
+      <c r="BM23" s="14"/>
+      <c r="BN23" s="14"/>
+      <c r="BO23" s="14"/>
+      <c r="BP23" s="14"/>
+      <c r="BQ23" s="14"/>
+      <c r="BR23" s="14"/>
+      <c r="BS23" s="14"/>
+      <c r="BT23" s="12"/>
+      <c r="BU23">
+        <v>12</v>
+      </c>
+      <c r="BV23">
+        <v>1</v>
+      </c>
+      <c r="BW23">
+        <v>1</v>
+      </c>
+      <c r="BX23">
+        <v>1</v>
+      </c>
+      <c r="BY23">
+        <v>1</v>
+      </c>
+      <c r="BZ23">
+        <v>1</v>
+      </c>
+      <c r="CA23" s="31">
+        <v>0</v>
+      </c>
+      <c r="CB23" s="14"/>
+      <c r="CC23" s="14"/>
+      <c r="CD23" s="14"/>
+      <c r="CE23" s="14"/>
+      <c r="CF23" s="14"/>
+      <c r="CG23" s="14"/>
+      <c r="CH23" s="14"/>
+      <c r="CI23" s="14"/>
     </row>
-    <row r="24" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -3594,19 +4185,27 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="12"/>
+      <c r="Q24" s="38">
+        <v>0</v>
+      </c>
+      <c r="R24" s="18">
+        <v>0</v>
+      </c>
       <c r="S24" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T24" s="18">
-        <v>0</v>
-      </c>
-      <c r="U24" s="35">
-        <v>0</v>
-      </c>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="U24" s="18">
+        <v>3</v>
+      </c>
+      <c r="V24" s="18">
+        <v>3</v>
+      </c>
+      <c r="W24" s="31">
+        <v>3</v>
+      </c>
       <c r="X24" s="22"/>
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
@@ -3617,16 +4216,10 @@
       <c r="AE24" s="22"/>
       <c r="AF24" s="22"/>
       <c r="AG24" s="22"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="18">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="35">
-        <v>0</v>
-      </c>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
       <c r="AM24" s="14"/>
       <c r="AN24" s="14"/>
@@ -3642,9 +4235,57 @@
       <c r="AX24" s="14"/>
       <c r="AY24" s="14"/>
       <c r="AZ24" s="14"/>
-      <c r="BA24" s="19"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="14"/>
+      <c r="BJ24" s="14"/>
+      <c r="BK24" s="14"/>
+      <c r="BL24" s="14"/>
+      <c r="BM24" s="14"/>
+      <c r="BN24" s="14"/>
+      <c r="BO24" s="14"/>
+      <c r="BP24" s="14"/>
+      <c r="BQ24" s="14"/>
+      <c r="BR24" s="14"/>
+      <c r="BS24" s="14"/>
+      <c r="BT24" s="12"/>
+      <c r="BU24">
+        <v>12</v>
+      </c>
+      <c r="BV24">
+        <v>1</v>
+      </c>
+      <c r="BW24">
+        <v>1</v>
+      </c>
+      <c r="BX24">
+        <v>1</v>
+      </c>
+      <c r="BY24">
+        <v>3</v>
+      </c>
+      <c r="BZ24">
+        <v>1</v>
+      </c>
+      <c r="CA24" s="31">
+        <v>0</v>
+      </c>
+      <c r="CB24" s="14"/>
+      <c r="CC24" s="14"/>
+      <c r="CD24" s="14"/>
+      <c r="CE24" s="14"/>
+      <c r="CF24" s="14"/>
+      <c r="CG24" s="14"/>
+      <c r="CH24" s="14"/>
+      <c r="CI24" s="14"/>
     </row>
-    <row r="25" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -3661,25 +4302,29 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="12"/>
+      <c r="Q25" s="38">
+        <v>0</v>
+      </c>
+      <c r="R25" s="18">
+        <v>0</v>
+      </c>
       <c r="S25" s="18">
         <v>0</v>
       </c>
       <c r="T25" s="18">
         <v>0</v>
       </c>
-      <c r="U25" s="14">
-        <v>0</v>
-      </c>
-      <c r="V25" s="14">
-        <v>3</v>
+      <c r="U25" s="18">
+        <v>0</v>
+      </c>
+      <c r="V25" s="18">
+        <v>6</v>
       </c>
       <c r="W25" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X25" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="14">
         <v>0</v>
@@ -3688,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB25" s="14">
         <v>0</v>
@@ -3711,33 +4356,151 @@
       <c r="AH25" s="14">
         <v>0</v>
       </c>
-      <c r="AI25" s="18">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="14"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="14"/>
-      <c r="AS25" s="14"/>
-      <c r="AT25" s="14"/>
-      <c r="AU25" s="14"/>
-      <c r="AV25" s="14"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="19"/>
+      <c r="AI25" s="28">
+        <v>6</v>
+      </c>
+      <c r="AJ25" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="28">
+        <v>5</v>
+      </c>
+      <c r="AN25" s="28">
+        <v>3</v>
+      </c>
+      <c r="AO25" s="28">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="37">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="37">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="37">
+        <v>3</v>
+      </c>
+      <c r="AS25" s="37">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="37">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="37">
+        <v>3</v>
+      </c>
+      <c r="AW25" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="37">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="37">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="37">
+        <v>3</v>
+      </c>
+      <c r="BA25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="37">
+        <v>3</v>
+      </c>
+      <c r="BJ25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="37">
+        <v>3</v>
+      </c>
+      <c r="BO25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="37">
+        <v>3</v>
+      </c>
+      <c r="BQ25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BS25" s="37">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="37">
+        <v>5</v>
+      </c>
+      <c r="BU25">
+        <v>1</v>
+      </c>
+      <c r="BV25">
+        <v>3</v>
+      </c>
+      <c r="BW25">
+        <v>1</v>
+      </c>
+      <c r="BX25">
+        <v>13</v>
+      </c>
+      <c r="BY25">
+        <v>1</v>
+      </c>
+      <c r="BZ25">
+        <v>3</v>
+      </c>
+      <c r="CA25" s="31">
+        <v>0</v>
+      </c>
+      <c r="CB25" s="14"/>
+      <c r="CC25" s="14"/>
+      <c r="CD25" s="14"/>
+      <c r="CE25" s="14"/>
+      <c r="CF25" s="14"/>
+      <c r="CG25" s="14"/>
+      <c r="CH25" s="14"/>
+      <c r="CI25" s="14"/>
     </row>
-    <row r="26" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -3754,8 +4517,12 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="12"/>
+      <c r="Q26" s="38">
+        <v>0</v>
+      </c>
+      <c r="R26" s="18">
+        <v>3</v>
+      </c>
       <c r="S26" s="18">
         <v>0</v>
       </c>
@@ -3775,7 +4542,7 @@
         <v>3</v>
       </c>
       <c r="Y26" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z26" s="18">
         <v>0</v>
@@ -3808,29 +4575,147 @@
         <v>3</v>
       </c>
       <c r="AJ26" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="14"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="14"/>
-      <c r="AR26" s="14"/>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="14"/>
-      <c r="AU26" s="14"/>
-      <c r="AV26" s="14"/>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="14"/>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="AK26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="18">
+        <v>3</v>
+      </c>
+      <c r="AM26" s="18">
+        <v>3</v>
+      </c>
+      <c r="AN26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="14">
+        <v>3</v>
+      </c>
+      <c r="AU26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="14">
+        <v>3</v>
+      </c>
+      <c r="AW26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="14">
+        <v>3</v>
+      </c>
+      <c r="AY26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="14">
+        <v>3</v>
+      </c>
+      <c r="BL26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="14">
+        <v>3</v>
+      </c>
+      <c r="BQ26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BS26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="14">
+        <v>4</v>
+      </c>
+      <c r="BU26">
+        <v>1</v>
+      </c>
+      <c r="BV26">
+        <v>1</v>
+      </c>
+      <c r="BW26">
+        <v>3</v>
+      </c>
+      <c r="BX26">
+        <v>1</v>
+      </c>
+      <c r="BY26">
+        <v>1</v>
+      </c>
+      <c r="BZ26">
+        <v>1</v>
+      </c>
+      <c r="CA26" s="31">
+        <v>0</v>
+      </c>
+      <c r="CB26" s="14"/>
+      <c r="CC26" s="14"/>
+      <c r="CD26" s="14"/>
+      <c r="CE26" s="14"/>
+      <c r="CF26" s="14"/>
+      <c r="CG26" s="14"/>
+      <c r="CH26" s="14"/>
+      <c r="CI26" s="14"/>
     </row>
-    <row r="27" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3847,1787 +4732,455 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="33">
-        <v>0</v>
+      <c r="Q27" s="39">
+        <v>0</v>
+      </c>
+      <c r="R27" s="22">
+        <v>6</v>
+      </c>
+      <c r="S27" s="22">
+        <v>3</v>
       </c>
       <c r="T27" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U27" s="22">
         <v>0</v>
       </c>
-      <c r="V27" s="33">
-        <v>0</v>
-      </c>
-      <c r="W27" s="33">
-        <v>0</v>
-      </c>
-      <c r="X27" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="33">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="33">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="33">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="33">
-        <v>3</v>
-      </c>
-      <c r="AH27" s="33">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="33">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="33">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="36">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
-      <c r="AR27" s="14"/>
-      <c r="AS27" s="14"/>
-      <c r="AT27" s="14"/>
-      <c r="AU27" s="14"/>
-      <c r="AV27" s="14"/>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="14"/>
-      <c r="AY27" s="14"/>
-      <c r="AZ27" s="14"/>
-      <c r="BA27" s="19"/>
+      <c r="V27" s="22">
+        <v>0</v>
+      </c>
+      <c r="W27" s="29">
+        <v>0</v>
+      </c>
+      <c r="X27" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="29">
+        <v>3</v>
+      </c>
+      <c r="AH27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="29">
+        <v>6</v>
+      </c>
+      <c r="AK27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="29">
+        <v>3</v>
+      </c>
+      <c r="AT27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="29">
+        <v>3</v>
+      </c>
+      <c r="AY27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="29">
+        <v>3</v>
+      </c>
+      <c r="BF27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="29">
+        <v>3</v>
+      </c>
+      <c r="BN27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BO27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="29">
+        <v>3</v>
+      </c>
+      <c r="BS27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="29">
+        <v>4</v>
+      </c>
+      <c r="BU27">
+        <v>9</v>
+      </c>
+      <c r="BV27">
+        <v>1</v>
+      </c>
+      <c r="BW27">
+        <v>1</v>
+      </c>
+      <c r="BX27">
+        <v>1</v>
+      </c>
+      <c r="BY27">
+        <v>1</v>
+      </c>
+      <c r="BZ27">
+        <v>1</v>
+      </c>
+      <c r="CA27" s="12">
+        <v>1</v>
+      </c>
+      <c r="CB27" s="14"/>
+      <c r="CC27" s="14"/>
+      <c r="CD27" s="14"/>
+      <c r="CE27" s="14"/>
+      <c r="CF27" s="14"/>
+      <c r="CG27" s="14"/>
+      <c r="CH27" s="14"/>
+      <c r="CI27" s="14"/>
     </row>
-    <row r="28" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="M28" s="14">
+        <v>7</v>
+      </c>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
+      <c r="T28" s="18">
+        <v>14</v>
+      </c>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
+      <c r="AA28" s="18">
+        <v>21</v>
+      </c>
       <c r="AB28" s="14"/>
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
+      <c r="AH28" s="18">
+        <v>28</v>
+      </c>
       <c r="AI28" s="14"/>
       <c r="AJ28" s="14"/>
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
       <c r="AM28" s="14"/>
       <c r="AN28" s="14"/>
-      <c r="AO28" s="14"/>
+      <c r="AO28" s="14">
+        <v>35</v>
+      </c>
       <c r="AP28" s="14"/>
       <c r="AQ28" s="14"/>
       <c r="AR28" s="14"/>
       <c r="AS28" s="14"/>
       <c r="AT28" s="14"/>
       <c r="AU28" s="14"/>
-      <c r="AV28" s="14"/>
+      <c r="AV28" s="14">
+        <v>42</v>
+      </c>
       <c r="AW28" s="14"/>
       <c r="AX28" s="14"/>
       <c r="AY28" s="14"/>
       <c r="AZ28" s="14"/>
-      <c r="BA28" s="19"/>
+      <c r="BA28" s="14"/>
+      <c r="BB28" s="14"/>
+      <c r="BC28" s="14"/>
+      <c r="BD28" s="14"/>
+      <c r="BE28" s="14"/>
+      <c r="BF28" s="14"/>
+      <c r="BG28" s="14"/>
+      <c r="BH28" s="14"/>
+      <c r="BI28" s="14"/>
+      <c r="BJ28" s="14"/>
+      <c r="BK28" s="14"/>
+      <c r="BL28" s="14"/>
+      <c r="BM28" s="14"/>
+      <c r="BN28" s="14"/>
+      <c r="BO28" s="14"/>
+      <c r="BP28" s="14"/>
+      <c r="BQ28" s="14"/>
+      <c r="BR28" s="14"/>
+      <c r="BS28" s="14"/>
+      <c r="BT28" s="12"/>
+      <c r="BU28" s="24">
+        <v>1</v>
+      </c>
+      <c r="BV28" s="22">
+        <v>1</v>
+      </c>
+      <c r="BW28" s="22">
+        <v>1</v>
+      </c>
+      <c r="BX28" s="22">
+        <v>1</v>
+      </c>
+      <c r="BY28" s="22">
+        <v>1</v>
+      </c>
+      <c r="BZ28" s="22">
+        <v>7</v>
+      </c>
+      <c r="CA28" s="23">
+        <v>1</v>
+      </c>
+      <c r="CB28" s="14"/>
+      <c r="CC28" s="14"/>
+      <c r="CD28" s="14"/>
+      <c r="CE28" s="14"/>
+      <c r="CF28" s="14"/>
+      <c r="CG28" s="14"/>
+      <c r="CH28" s="14"/>
+      <c r="CI28" s="14"/>
     </row>
-    <row r="29" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:87" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="G29" s="26">
+        <v>5</v>
+      </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+      <c r="L29" s="26">
+        <v>10</v>
+      </c>
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
+      <c r="Q29" s="26">
+        <v>15</v>
+      </c>
       <c r="R29" s="26"/>
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
+      <c r="V29" s="26">
+        <v>20</v>
+      </c>
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
       <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
+      <c r="AA29" s="26">
+        <v>25</v>
+      </c>
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="26"/>
       <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
+      <c r="AF29" s="26">
+        <v>30</v>
+      </c>
       <c r="AG29" s="26"/>
       <c r="AH29" s="26"/>
       <c r="AI29" s="26"/>
       <c r="AJ29" s="26"/>
-      <c r="AK29" s="26"/>
+      <c r="AK29" s="26">
+        <v>35</v>
+      </c>
       <c r="AL29" s="26"/>
       <c r="AM29" s="26"/>
       <c r="AN29" s="26"/>
       <c r="AO29" s="26"/>
-      <c r="AP29" s="26"/>
+      <c r="AP29" s="26">
+        <v>40</v>
+      </c>
       <c r="AQ29" s="26"/>
       <c r="AR29" s="26"/>
       <c r="AS29" s="26"/>
       <c r="AT29" s="26"/>
-      <c r="AU29" s="26"/>
+      <c r="AU29" s="26">
+        <v>45</v>
+      </c>
       <c r="AV29" s="26"/>
       <c r="AW29" s="26"/>
       <c r="AX29" s="26"/>
       <c r="AY29" s="26"/>
-      <c r="AZ29" s="26"/>
-      <c r="BA29" s="27"/>
+      <c r="BT29" s="14"/>
+      <c r="BU29" s="14"/>
+      <c r="CB29" s="14"/>
+      <c r="CC29" s="14"/>
     </row>
-    <row r="30" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="15"/>
-      <c r="AM31" s="15"/>
-      <c r="AN31" s="15"/>
-      <c r="AO31" s="15"/>
-      <c r="AP31" s="15"/>
-      <c r="AQ31" s="15"/>
-      <c r="AR31" s="15"/>
-      <c r="AS31" s="15"/>
-      <c r="AT31" s="15"/>
-      <c r="AU31" s="15"/>
-      <c r="AV31" s="15"/>
-      <c r="AW31" s="15"/>
-      <c r="AX31" s="15"/>
-      <c r="AY31" s="15"/>
-      <c r="AZ31" s="15"/>
-      <c r="BA31" s="16"/>
+    <row r="30" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D30">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>56</v>
+      </c>
+      <c r="R30">
+        <v>63</v>
+      </c>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="Y30" s="18">
+        <v>70</v>
+      </c>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AF30">
+        <v>77</v>
+      </c>
     </row>
-    <row r="32" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="14"/>
-      <c r="AM32" s="14"/>
-      <c r="AN32" s="14"/>
-      <c r="AO32" s="14"/>
-      <c r="AP32" s="14"/>
-      <c r="AQ32" s="14"/>
-      <c r="AR32" s="14"/>
-      <c r="AS32" s="14"/>
-      <c r="AT32" s="14"/>
-      <c r="AU32" s="14"/>
-      <c r="AV32" s="14"/>
-      <c r="AW32" s="14"/>
-      <c r="AX32" s="14"/>
-      <c r="AY32" s="14"/>
-      <c r="AZ32" s="14"/>
-      <c r="BA32" s="19"/>
-    </row>
-    <row r="33" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="14"/>
-      <c r="AN33" s="14"/>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
-      <c r="AQ33" s="14"/>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="14"/>
-      <c r="AT33" s="14"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="14"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="14"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="19"/>
-    </row>
-    <row r="34" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14"/>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="19"/>
-    </row>
-    <row r="35" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="14"/>
-      <c r="AL35" s="14"/>
-      <c r="AM35" s="14"/>
-      <c r="AZ35" s="14"/>
-      <c r="BA35" s="19"/>
-    </row>
-    <row r="36" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="14">
-        <v>0</v>
-      </c>
-      <c r="D36" s="18">
-        <v>14</v>
-      </c>
-      <c r="E36" s="18">
-        <v>0</v>
-      </c>
-      <c r="F36" s="18">
-        <v>0</v>
-      </c>
-      <c r="G36" s="18">
-        <v>0</v>
-      </c>
-      <c r="H36" s="18">
-        <v>0</v>
-      </c>
-      <c r="I36" s="18">
-        <v>0</v>
-      </c>
-      <c r="J36" s="18">
-        <v>0</v>
-      </c>
-      <c r="K36" s="18">
-        <v>0</v>
-      </c>
-      <c r="L36" s="18">
-        <v>14</v>
-      </c>
-      <c r="M36" s="18">
-        <v>0</v>
-      </c>
-      <c r="N36" s="18">
-        <v>0</v>
-      </c>
-      <c r="O36" s="18">
-        <v>0</v>
-      </c>
-      <c r="P36" s="18">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="18">
-        <v>0</v>
-      </c>
-      <c r="R36" s="18">
-        <v>0</v>
-      </c>
-      <c r="S36" s="18">
-        <v>0</v>
-      </c>
-      <c r="T36" s="18">
-        <v>14</v>
-      </c>
-      <c r="U36" s="18">
-        <v>0</v>
-      </c>
-      <c r="V36" s="18">
-        <v>0</v>
-      </c>
-      <c r="W36" s="18">
-        <v>0</v>
-      </c>
-      <c r="X36" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="18">
-        <v>14</v>
-      </c>
-      <c r="AC36" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="34">
-        <v>5</v>
-      </c>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="18"/>
-      <c r="AZ36" s="18"/>
-      <c r="BA36" s="19"/>
-    </row>
-    <row r="37" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="17"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="14">
-        <v>0</v>
-      </c>
-      <c r="D37" s="18">
-        <v>0</v>
-      </c>
-      <c r="E37" s="18">
-        <v>0</v>
-      </c>
-      <c r="F37" s="18">
-        <v>0</v>
-      </c>
-      <c r="G37" s="18">
-        <v>0</v>
-      </c>
-      <c r="H37" s="18">
-        <v>0</v>
-      </c>
-      <c r="I37" s="18">
-        <v>0</v>
-      </c>
-      <c r="J37" s="18">
-        <v>0</v>
-      </c>
-      <c r="K37" s="18">
-        <v>0</v>
-      </c>
-      <c r="L37" s="18">
-        <v>0</v>
-      </c>
-      <c r="M37" s="18">
-        <v>0</v>
-      </c>
-      <c r="N37" s="18">
-        <v>15</v>
-      </c>
-      <c r="O37" s="18">
-        <v>0</v>
-      </c>
-      <c r="P37" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q37" s="18">
-        <v>0</v>
-      </c>
-      <c r="R37" s="18">
-        <v>0</v>
-      </c>
-      <c r="S37" s="18">
-        <v>0</v>
-      </c>
-      <c r="T37" s="18">
-        <v>4</v>
-      </c>
-      <c r="U37" s="18">
-        <v>0</v>
-      </c>
-      <c r="V37" s="18">
-        <v>0</v>
-      </c>
-      <c r="W37" s="18">
-        <v>0</v>
-      </c>
-      <c r="X37" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="35">
-        <v>5</v>
-      </c>
-      <c r="AJ37" s="18"/>
-      <c r="AK37" s="18"/>
-      <c r="AL37" s="18"/>
-      <c r="AM37" s="18"/>
-      <c r="AZ37" s="18"/>
-      <c r="BA37" s="19"/>
-    </row>
-    <row r="38" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="14">
-        <v>0</v>
-      </c>
-      <c r="D38" s="18">
-        <v>0</v>
-      </c>
-      <c r="E38" s="18">
-        <v>0</v>
-      </c>
-      <c r="F38" s="18">
-        <v>0</v>
-      </c>
-      <c r="G38" s="18">
-        <v>0</v>
-      </c>
-      <c r="H38" s="18">
-        <v>0</v>
-      </c>
-      <c r="I38" s="18">
-        <v>0</v>
-      </c>
-      <c r="J38" s="18">
-        <v>0</v>
-      </c>
-      <c r="K38" s="18">
-        <v>0</v>
-      </c>
-      <c r="L38" s="18">
-        <v>0</v>
-      </c>
-      <c r="M38" s="18">
-        <v>0</v>
-      </c>
-      <c r="N38" s="18">
-        <v>15</v>
-      </c>
-      <c r="O38" s="18">
-        <v>0</v>
-      </c>
-      <c r="P38" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="18">
-        <v>0</v>
-      </c>
-      <c r="R38" s="18">
-        <v>0</v>
-      </c>
-      <c r="S38" s="18">
-        <v>0</v>
-      </c>
-      <c r="T38" s="18">
-        <v>4</v>
-      </c>
-      <c r="U38" s="18">
-        <v>0</v>
-      </c>
-      <c r="V38" s="18">
-        <v>0</v>
-      </c>
-      <c r="W38" s="18">
-        <v>0</v>
-      </c>
-      <c r="X38" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="35">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="18"/>
-      <c r="AM38" s="18"/>
-      <c r="AZ38" s="18"/>
-      <c r="BA38" s="19"/>
-    </row>
-    <row r="39" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="17"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="18">
-        <v>0</v>
-      </c>
-      <c r="D39" s="18">
-        <v>0</v>
-      </c>
-      <c r="E39" s="18">
-        <v>0</v>
-      </c>
-      <c r="F39" s="18">
-        <v>0</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0</v>
-      </c>
-      <c r="H39" s="18">
-        <v>0</v>
-      </c>
-      <c r="I39" s="18">
-        <v>0</v>
-      </c>
-      <c r="J39" s="18">
-        <v>0</v>
-      </c>
-      <c r="K39" s="18">
-        <v>0</v>
-      </c>
-      <c r="L39" s="18">
-        <v>0</v>
-      </c>
-      <c r="M39" s="18">
-        <v>0</v>
-      </c>
-      <c r="N39" s="18">
-        <v>3</v>
-      </c>
-      <c r="O39" s="18">
-        <v>0</v>
-      </c>
-      <c r="P39" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="18">
-        <v>0</v>
-      </c>
-      <c r="R39" s="18">
-        <v>0</v>
-      </c>
-      <c r="S39" s="18">
-        <v>0</v>
-      </c>
-      <c r="T39" s="18">
-        <v>0</v>
-      </c>
-      <c r="U39" s="18">
-        <v>0</v>
-      </c>
-      <c r="V39" s="18">
-        <v>0</v>
-      </c>
-      <c r="W39" s="18">
-        <v>0</v>
-      </c>
-      <c r="X39" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="35">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="18"/>
-      <c r="AK39" s="18"/>
-      <c r="AL39" s="18"/>
-      <c r="AM39" s="18"/>
-      <c r="AZ39" s="18"/>
-      <c r="BA39" s="19"/>
-    </row>
-    <row r="40" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="17"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="18">
-        <v>0</v>
-      </c>
-      <c r="D40" s="18">
-        <v>0</v>
-      </c>
-      <c r="E40" s="18">
-        <v>0</v>
-      </c>
-      <c r="F40" s="18">
-        <v>0</v>
-      </c>
-      <c r="G40" s="18">
-        <v>0</v>
-      </c>
-      <c r="H40" s="18">
-        <v>0</v>
-      </c>
-      <c r="I40" s="18">
-        <v>0</v>
-      </c>
-      <c r="J40" s="18">
-        <v>0</v>
-      </c>
-      <c r="K40" s="18">
-        <v>0</v>
-      </c>
-      <c r="L40" s="18">
-        <v>0</v>
-      </c>
-      <c r="M40" s="18">
-        <v>0</v>
-      </c>
-      <c r="N40" s="18">
-        <v>0</v>
-      </c>
-      <c r="O40" s="18">
-        <v>0</v>
-      </c>
-      <c r="P40" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q40" s="18">
-        <v>0</v>
-      </c>
-      <c r="R40" s="18">
-        <v>0</v>
-      </c>
-      <c r="S40" s="18">
-        <v>0</v>
-      </c>
-      <c r="T40" s="18">
-        <v>15</v>
-      </c>
-      <c r="U40" s="18">
-        <v>0</v>
-      </c>
-      <c r="V40" s="18">
-        <v>0</v>
-      </c>
-      <c r="W40" s="18">
-        <v>0</v>
-      </c>
-      <c r="X40" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="18">
-        <v>15</v>
-      </c>
-      <c r="AA40" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="35">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="18"/>
-      <c r="AK40" s="18"/>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
-      <c r="AZ40" s="18"/>
-      <c r="BA40" s="19"/>
-    </row>
-    <row r="41" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="17"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="18">
-        <v>0</v>
-      </c>
-      <c r="D41" s="18">
-        <v>0</v>
-      </c>
-      <c r="E41" s="18">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
-        <v>0</v>
-      </c>
-      <c r="G41" s="18">
-        <v>0</v>
-      </c>
-      <c r="H41" s="18">
-        <v>0</v>
-      </c>
-      <c r="I41" s="18">
-        <v>0</v>
-      </c>
-      <c r="J41" s="18">
-        <v>0</v>
-      </c>
-      <c r="K41" s="18">
-        <v>0</v>
-      </c>
-      <c r="L41" s="18">
-        <v>0</v>
-      </c>
-      <c r="M41" s="18">
-        <v>0</v>
-      </c>
-      <c r="N41" s="18">
-        <v>3</v>
-      </c>
-      <c r="O41" s="18">
-        <v>0</v>
-      </c>
-      <c r="P41" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="18">
-        <v>0</v>
-      </c>
-      <c r="R41" s="18">
-        <v>0</v>
-      </c>
-      <c r="S41" s="18">
-        <v>0</v>
-      </c>
-      <c r="T41" s="18">
-        <v>15</v>
-      </c>
-      <c r="U41" s="18">
-        <v>0</v>
-      </c>
-      <c r="V41" s="18">
-        <v>0</v>
-      </c>
-      <c r="W41" s="18">
-        <v>15</v>
-      </c>
-      <c r="X41" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="18">
-        <v>15</v>
-      </c>
-      <c r="AC41" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="35">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="18"/>
-      <c r="AL41" s="18"/>
-      <c r="AM41" s="18"/>
-      <c r="AZ41" s="18"/>
-      <c r="BA41" s="19"/>
-    </row>
-    <row r="42" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="17"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41">
-        <v>0</v>
-      </c>
-      <c r="D42" s="33">
-        <v>0</v>
-      </c>
-      <c r="E42" s="33">
-        <v>0</v>
-      </c>
-      <c r="F42" s="33">
-        <v>0</v>
-      </c>
-      <c r="G42" s="33">
-        <v>0</v>
-      </c>
-      <c r="H42" s="33">
-        <v>14</v>
-      </c>
-      <c r="I42" s="33">
-        <v>0</v>
-      </c>
-      <c r="J42" s="33">
-        <v>0</v>
-      </c>
-      <c r="K42" s="33">
-        <v>0</v>
-      </c>
-      <c r="L42" s="33">
-        <v>0</v>
-      </c>
-      <c r="M42" s="33">
-        <v>0</v>
-      </c>
-      <c r="N42" s="33">
-        <v>0</v>
-      </c>
-      <c r="O42" s="33">
-        <v>0</v>
-      </c>
-      <c r="P42" s="33">
-        <v>14</v>
-      </c>
-      <c r="Q42" s="33">
-        <v>0</v>
-      </c>
-      <c r="R42" s="33">
-        <v>0</v>
-      </c>
-      <c r="S42" s="33">
-        <v>0</v>
-      </c>
-      <c r="T42" s="33">
-        <v>11</v>
-      </c>
-      <c r="U42" s="33">
-        <v>0</v>
-      </c>
-      <c r="V42" s="33">
-        <v>0</v>
-      </c>
-      <c r="W42" s="33">
-        <v>0</v>
-      </c>
-      <c r="X42" s="33">
-        <v>14</v>
-      </c>
-      <c r="Y42" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="33">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="33">
-        <v>14</v>
-      </c>
-      <c r="AG42" s="33">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="33">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="36">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="18"/>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="18"/>
-      <c r="AZ42" s="18"/>
-      <c r="BA42" s="19"/>
-    </row>
-    <row r="43" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="17"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="14"/>
-      <c r="AM43" s="14"/>
-      <c r="AZ43" s="14"/>
-      <c r="BA43" s="19"/>
-    </row>
-    <row r="44" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="17"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="14"/>
-      <c r="AM44" s="14"/>
-      <c r="AN44" s="14"/>
-      <c r="AO44" s="14"/>
-      <c r="AP44" s="14"/>
-      <c r="AZ44" s="14"/>
-      <c r="BA44" s="19"/>
-    </row>
-    <row r="45" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="17"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="12"/>
-      <c r="X45">
-        <v>5</v>
-      </c>
-      <c r="Y45">
-        <v>12</v>
-      </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
-      <c r="AA45">
-        <v>1</v>
-      </c>
-      <c r="AB45">
-        <v>1</v>
-      </c>
-      <c r="AC45">
-        <v>1</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45">
-        <v>12</v>
-      </c>
-      <c r="AF45" s="12">
-        <v>1</v>
-      </c>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="14"/>
-      <c r="AI45" s="14"/>
-      <c r="AJ45" s="14"/>
-      <c r="AK45" s="14"/>
-      <c r="AL45" s="14"/>
-      <c r="AM45" s="14"/>
-      <c r="AN45" s="14"/>
-      <c r="AO45" s="14"/>
-      <c r="AP45" s="14"/>
-      <c r="AZ45" s="14"/>
-      <c r="BA45" s="19"/>
-    </row>
-    <row r="46" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="17"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="12"/>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46">
-        <v>12</v>
-      </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
-      <c r="AA46">
-        <v>1</v>
-      </c>
-      <c r="AB46">
-        <v>1</v>
-      </c>
-      <c r="AC46">
-        <v>1</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AE46">
-        <v>12</v>
-      </c>
-      <c r="AF46" s="12">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14"/>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="14"/>
-      <c r="AM46" s="14"/>
-      <c r="AN46" s="14"/>
-      <c r="AO46" s="14"/>
-      <c r="AP46" s="14"/>
-      <c r="AZ46" s="14"/>
-      <c r="BA46" s="19"/>
-    </row>
-    <row r="47" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="17"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="12"/>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47">
-        <v>12</v>
-      </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AA47">
-        <v>1</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
-      </c>
-      <c r="AC47">
-        <v>3</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-      <c r="AF47" s="12">
-        <v>1</v>
-      </c>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="14"/>
-      <c r="AI47" s="14"/>
-      <c r="AJ47" s="14"/>
-      <c r="AK47" s="14"/>
-      <c r="AL47" s="14"/>
-      <c r="AM47" s="14"/>
-      <c r="AN47" s="14"/>
-      <c r="AO47" s="14"/>
-      <c r="AP47" s="14"/>
-      <c r="AZ47" s="14"/>
-      <c r="BA47" s="19"/>
-    </row>
-    <row r="48" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="17"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="12"/>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
-      <c r="Z48">
-        <v>3</v>
-      </c>
-      <c r="AA48">
-        <v>1</v>
-      </c>
-      <c r="AB48">
-        <v>13</v>
-      </c>
-      <c r="AC48">
-        <v>1</v>
-      </c>
-      <c r="AD48">
-        <v>3</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48" s="12">
-        <v>1</v>
-      </c>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="14"/>
-      <c r="AI48" s="14"/>
-      <c r="AJ48" s="14"/>
-      <c r="AK48" s="14"/>
-      <c r="AL48" s="14"/>
-      <c r="AM48" s="14"/>
-      <c r="AN48" s="14"/>
-      <c r="AO48" s="14"/>
-      <c r="AP48" s="14"/>
-      <c r="AZ48" s="14"/>
-      <c r="BA48" s="19"/>
-    </row>
-    <row r="49" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="17"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="12"/>
-      <c r="X49">
-        <v>1</v>
-      </c>
-      <c r="Y49">
-        <v>1</v>
-      </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AA49">
-        <v>3</v>
-      </c>
-      <c r="AB49">
-        <v>1</v>
-      </c>
-      <c r="AC49">
-        <v>1</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-      <c r="AF49" s="12">
-        <v>1</v>
-      </c>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AM49" s="14"/>
-      <c r="AN49" s="14"/>
-      <c r="AO49" s="14"/>
-      <c r="AP49" s="14"/>
-      <c r="AZ49" s="14"/>
-      <c r="BA49" s="19"/>
-    </row>
-    <row r="50" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="17"/>
-      <c r="W50" s="12"/>
-      <c r="X50">
-        <v>8</v>
-      </c>
-      <c r="Y50">
-        <v>8</v>
-      </c>
-      <c r="Z50">
-        <v>1</v>
-      </c>
-      <c r="AA50">
-        <v>1</v>
-      </c>
-      <c r="AB50">
-        <v>1</v>
-      </c>
-      <c r="AC50">
-        <v>1</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AE50">
-        <v>7</v>
-      </c>
-      <c r="AF50" s="12">
-        <v>1</v>
-      </c>
-      <c r="AM50" s="14"/>
-      <c r="AN50" s="14"/>
-      <c r="AO50" s="14"/>
-      <c r="AP50" s="14"/>
-      <c r="BA50" s="19"/>
-    </row>
-    <row r="51" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="17"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="22">
-        <v>8</v>
-      </c>
-      <c r="Y51" s="22">
-        <v>8</v>
-      </c>
-      <c r="Z51" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="22">
-        <v>7</v>
-      </c>
-      <c r="AD51" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF51" s="23">
-        <v>1</v>
-      </c>
-      <c r="AM51" s="14"/>
-      <c r="AN51" s="14"/>
-      <c r="AO51" s="14"/>
-      <c r="AP51" s="14"/>
-      <c r="BA51" s="19"/>
-    </row>
-    <row r="52" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="17"/>
-      <c r="AM52" s="14"/>
-      <c r="AN52" s="14"/>
-      <c r="AO52" s="14"/>
-      <c r="AP52" s="14"/>
-      <c r="BA52" s="19"/>
-    </row>
-    <row r="53" spans="1:53" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="26"/>
-      <c r="AH53" s="26"/>
-      <c r="AI53" s="26"/>
-      <c r="AJ53" s="26"/>
-      <c r="AK53" s="26"/>
-      <c r="AL53" s="26"/>
-      <c r="AM53" s="26"/>
-      <c r="AN53" s="26"/>
-      <c r="AO53" s="26"/>
-      <c r="AP53" s="26"/>
-      <c r="AQ53" s="26"/>
-      <c r="AR53" s="26"/>
-      <c r="AS53" s="26"/>
-      <c r="AT53" s="26"/>
-      <c r="AU53" s="26"/>
-      <c r="AV53" s="26"/>
-      <c r="AW53" s="26"/>
-      <c r="AX53" s="26"/>
-      <c r="AY53" s="26"/>
-      <c r="AZ53" s="26"/>
-      <c r="BA53" s="27"/>
+    <row r="31" spans="1:87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AZ31">
+        <v>50</v>
+      </c>
+      <c r="BE31">
+        <v>55</v>
+      </c>
+      <c r="BJ31">
+        <v>60</v>
+      </c>
+      <c r="BO31">
+        <v>65</v>
+      </c>
+      <c r="BT31">
+        <v>70</v>
+      </c>
+      <c r="BY31" s="18">
+        <v>75</v>
+      </c>
+      <c r="CD31">
+        <v>80</v>
+      </c>
+      <c r="CH31">
+        <v>84</v>
+      </c>
+      <c r="CI31">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AD23:AF23"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
@@ -5643,12 +5196,6 @@
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="W5:AB5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AW6:AZ6 F6:U6 A6">
@@ -5686,7 +5233,7 @@
       <formula>A6=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BA34 A53:BA53 AZ35:BA52 A35:AM52">
+  <conditionalFormatting sqref="BU22:CA28 Y30 A1:BA12 A14:BA14 A13:AH13 AL13:BA13 A23:AD23 AG23:AY23 A15:AY22 AZ15:CI21 AZ31:CI31 CB22:CI29 AC30:AJ30 AZ22:BT29 A30:U30 A24:AY29">
     <cfRule type="expression" dxfId="15" priority="144">
       <formula>A1=15</formula>
     </cfRule>
